--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/RageFangSkillTable.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/RageFangSkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA4ABA1B-AEC5-418B-A38E-180925207735}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C38C68-E565-498C-8D82-ADC463B694EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19155" windowHeight="8700" xr2:uid="{0C10A3F9-6922-45E2-8FB2-47C056503AED}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -585,22 +585,22 @@
         <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -649,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4</v>
+        <v>40</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.2</v>
+        <v>20</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -681,7 +681,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>0.4</v>
+        <v>40</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.2</v>
+        <v>20</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>15</v>
       </c>
       <c r="E6">
-        <v>0.15</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>0.4</v>
+        <v>40</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.15</v>
+        <v>15</v>
       </c>
       <c r="I6">
-        <v>0.15</v>
+        <v>15</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -745,22 +745,22 @@
         <v>30</v>
       </c>
       <c r="E7">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G7">
-        <v>0.15</v>
+        <v>15</v>
       </c>
       <c r="H7">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>0.15</v>
+        <v>15</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>0.85</v>
+        <v>85</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="J8">
-        <v>0.15</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="J9">
-        <v>0.6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -850,10 +850,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.2</v>
+        <v>20</v>
       </c>
       <c r="I10">
-        <v>0.2</v>
+        <v>20</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -885,10 +885,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.15</v>
+        <v>15</v>
       </c>
       <c r="J11">
-        <v>0.15</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.2</v>
+        <v>20</v>
       </c>
       <c r="I12">
-        <v>0.2</v>
+        <v>20</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -926,5 +926,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/RageFangSkillTable.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/RageFangSkillTable.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C38C68-E565-498C-8D82-ADC463B694EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D9F6384-4FBB-4EBE-94D1-20585C539B39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19155" windowHeight="8700" xr2:uid="{0C10A3F9-6922-45E2-8FB2-47C056503AED}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12180" xr2:uid="{5BFC6068-7BAD-4151-BB4D-47909EF32078}"/>
   </bookViews>
   <sheets>
-    <sheet name="RageFangSkillTable" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,110 +33,110 @@
     <t>Name</t>
   </si>
   <si>
+    <t>DamageCoefficient</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoolDown</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distance_1P1M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distance_1P3M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distance_1P5M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distance_2P1M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distance_2P3M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distance_2P5M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>이름</t>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>데미지 계수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿨다운</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1m이내일 경우</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3m이내일 경우</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5m이내일경우</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RightPunch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LeftSwip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Jumping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>FlexingMuscles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Rush</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>JumpAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ContinuousPunch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Rolling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TurnAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5m이내일경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3m이내일 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1m이내일 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distance_1P1M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distance_1P3M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distance_1P5M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distance_2P1M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distance_2P3M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distance_2P5M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CoolDown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿨다운</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageCoefficient</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데미지 계수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -147,13 +147,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -172,6 +165,13 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -197,22 +197,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{93A66BD9-4B5D-46C9-95BA-8C23F8F2CC10}"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{72FFB682-01A0-4737-9C15-F3CD09E5BD52}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -523,11 +523,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5ECBAD-CE7C-43C8-ABE8-8843939986BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656E3B6C-2B55-46AB-B3AD-F8F1EBF86E2D}">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -547,92 +547,92 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -640,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -672,7 +672,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>1.05</v>
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>1.35</v>
@@ -736,7 +736,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>1.3</v>
@@ -800,7 +800,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>1.5</v>
@@ -832,7 +832,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>1.2</v>
@@ -864,7 +864,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>1.25</v>
@@ -924,8 +924,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/RageFangSkillTable.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/RageFangSkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D9F6384-4FBB-4EBE-94D1-20585C539B39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838575C8-6537-46C8-8D00-66BB0909354A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12180" xr2:uid="{5BFC6068-7BAD-4151-BB4D-47909EF32078}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>key</t>
   </si>
@@ -41,30 +41,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Distance_1P1M</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distance_1P3M</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distance_1P5M</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distance_2P1M</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distance_2P3M</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distance_2P5M</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -91,18 +67,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1m이내일 경우</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3m이내일 경우</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5m이내일경우</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>RightPunch</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -136,6 +100,102 @@
   </si>
   <si>
     <t>TurnAttack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1P1M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2P3M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1P3M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1P5M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2P1M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2P5M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3P1M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3P3M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3P5M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4P1M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4P3M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4P5M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4P_7m이내</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4P_5m이내</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4P_3m이내</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1P_3m이내</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1P_5m이내</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1P_7m이내</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2P_3m이내</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2P_5m이내</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2P_7m이내</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3P_3m이내</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3P_5m이내</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3P_7m이내</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -524,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656E3B6C-2B55-46AB-B3AD-F8F1EBF86E2D}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -535,11 +595,10 @@
     <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="16" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,94 +612,148 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -658,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -666,13 +779,31 @@
       <c r="J4">
         <v>0</v>
       </c>
+      <c r="K4">
+        <v>30</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>1.05</v>
@@ -690,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -698,13 +829,31 @@
       <c r="J5">
         <v>0</v>
       </c>
+      <c r="K5">
+        <v>30</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>7</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>1.35</v>
@@ -725,18 +874,36 @@
         <v>15</v>
       </c>
       <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>15</v>
       </c>
-      <c r="J6">
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -757,18 +924,36 @@
         <v>5</v>
       </c>
       <c r="I7">
+        <v>50</v>
+      </c>
+      <c r="J7">
         <v>15</v>
       </c>
-      <c r="J7">
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
         <v>10</v>
       </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>9</v>
+      </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>1.3</v>
@@ -789,18 +974,36 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J8">
-        <v>15</v>
+        <v>55</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>20</v>
+      </c>
+      <c r="M8">
+        <v>25</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>20</v>
+      </c>
+      <c r="P8">
+        <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>1.5</v>
@@ -821,18 +1024,36 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J9">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>30</v>
+      </c>
+      <c r="M9">
+        <v>45</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>30</v>
+      </c>
+      <c r="P9">
+        <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>1.2</v>
@@ -850,21 +1071,39 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>20</v>
       </c>
-      <c r="I10">
-        <v>20</v>
-      </c>
-      <c r="J10">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>30</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -885,21 +1124,39 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>30</v>
+      </c>
+      <c r="M11">
+        <v>25</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>30</v>
+      </c>
+      <c r="P11">
+        <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -914,17 +1171,36 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>40</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/RageFangSkillTable.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/RageFangSkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838575C8-6537-46C8-8D00-66BB0909354A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A98871-262F-4979-B1AE-1D347886C07C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12180" xr2:uid="{5BFC6068-7BAD-4151-BB4D-47909EF32078}"/>
   </bookViews>
@@ -103,54 +103,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1P1M</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2P3M</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1P3M</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1P5M</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2P1M</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2P5M</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3P1M</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3P3M</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3P5M</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4P1M</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4P3M</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4P5M</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>4P_7m이내</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -196,6 +148,54 @@
   </si>
   <si>
     <t>3P_7m이내</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF_1P3M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF_1P5M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF_1P7M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF_2P3M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF_2P5M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF_2P7M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF_3P3M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF_3P5M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF_3P7M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF_4P3M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF_4P5M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF_4P7M</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656E3B6C-2B55-46AB-B3AD-F8F1EBF86E2D}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -612,40 +612,40 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -712,40 +712,40 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">

--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/RageFangSkillTable.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/RageFangSkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A98871-262F-4979-B1AE-1D347886C07C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95030907-1AD1-4D89-8957-1585A98E76CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12180" xr2:uid="{5BFC6068-7BAD-4151-BB4D-47909EF32078}"/>
   </bookViews>
@@ -103,10 +103,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>4P_7m이내</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>4P_5m이내</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -123,10 +119,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1P_7m이내</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2P_3m이내</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -135,10 +127,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2P_7m이내</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>3P_3m이내</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -147,10 +135,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3P_7m이내</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>RF_1P3M</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -196,6 +180,22 @@
   </si>
   <si>
     <t>RF_4P7M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1P_7m이상</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2P_7m이상</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3P_7m이상</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4P_7m이상</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -587,7 +587,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -612,40 +612,40 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -712,40 +712,40 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="M3" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
